--- a/biology/Botanique/Vaucheria/Vaucheria.xlsx
+++ b/biology/Botanique/Vaucheria/Vaucheria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vaucheria  est l'un des deux genres d'algues filamenteuses vertes-jaunes de la famille des Vaucheriaceae au sein de la classe des Xanthophyceae[3], vivant en eaux douces à saumâtre.
-L'espèce-type (type species) de ce genre est Vaucheria disperma[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vaucheria  est l'un des deux genres d'algues filamenteuses vertes-jaunes de la famille des Vaucheriaceae au sein de la classe des Xanthophyceae, vivant en eaux douces à saumâtre.
+L'espèce-type (type species) de ce genre est Vaucheria disperma,.
 Cette algue s'est notamment fait connaitre des amateurs de curiosités naturalistes parce que consommée par la limace de mer verte Elysia chlorotica qui est grâce à cela l'un des rares animaux « photosynthétiques », en raison du fait que cet animal conserve  les chloroplastes fonctionnels des vaucherias qu'il ingère ce qui lui permet ensuite de produire de l'oxygène natif et sa propre énergie à partir de la lumière solaire.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom a été donné en hommage au pasteur et botaniste suisse Jean Pierre Étienne Vaucher (1763-1841). 
 </t>
@@ -544,7 +558,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eaux douces à saumâtres, éclairées.
 </t>
@@ -575,12 +591,14 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les algues filamenteuses du genre Vaucheria sont coenocytiques (plusieurs noyaux par cellule) et caractérisées par une croissance apicale rapide et régulière (La pointe du filament ne cesse de croître, tant que les conditions de vie de l'algue sont bonnes). 
-Elles forment des tapis plus ou moins denses dans certains milieux aquatiques terrestres et d'eau douce à saumâtre[4],[5]. 
-Ses filaments forment des coenocytes avec une grande vacuole centrale qui grandit au milieu du cytoplasme environnant ; la vacuole s'étend sur toute la longueur du filament sauf au niveau de pointe en croissance[5]. Les chloroplastes sont disposés sur la périphérie du cytoplasme avec les noyaux qui s'agrègent vers le centre près de la vacuole[5].
-Les espèces de ce genre ont un cycle de vie dit diplontique[6] alors qu'on les a d'abord cru haplontique.
+Elles forment des tapis plus ou moins denses dans certains milieux aquatiques terrestres et d'eau douce à saumâtre,. 
+Ses filaments forment des coenocytes avec une grande vacuole centrale qui grandit au milieu du cytoplasme environnant ; la vacuole s'étend sur toute la longueur du filament sauf au niveau de pointe en croissance. Les chloroplastes sont disposés sur la périphérie du cytoplasme avec les noyaux qui s'agrègent vers le centre près de la vacuole.
+Les espèces de ce genre ont un cycle de vie dit diplontique alors qu'on les a d'abord cru haplontique.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>État des populations, pressions, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les données manquant pour une évaluation complète. Ce type d'algue ne parait pas en danger, mais il est plus que d'autres vulnérables à certains biocides et à certains désherbants en particulier (La mise en contact de Vaucheria avec une eau contenant seulement 1 µg/l de malathion suffit a induire l'apparition de cristaux bruns à l'intérieur du cytoplasme, de même que la formation d'une seconde paroi cellulaire à l'intérieur de la première et des anomalies de conformation du gamétange juste après la mise en contact initiale[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les données manquant pour une évaluation complète. Ce type d'algue ne parait pas en danger, mais il est plus que d'autres vulnérables à certains biocides et à certains désherbants en particulier (La mise en contact de Vaucheria avec une eau contenant seulement 1 µg/l de malathion suffit a induire l'apparition de cristaux bruns à l'intérieur du cytoplasme, de même que la formation d'une seconde paroi cellulaire à l'intérieur de la première et des anomalies de conformation du gamétange juste après la mise en contact initiale.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (15 août 2017)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (15 août 2017) :
 Vaucheria acrandra Ott &amp; Hommersand
 Vaucheria adela Ott &amp; Hommersand
 Vaucheria adunca C.-C.Jao
@@ -793,7 +815,7 @@
 Vaucheria walzii Rothert
 Vaucheria woroniniana Heering
 Vaucheria zapotecana Bonilla-Rodriguez, Garduno-Solorzano, Martinez-Garcia, Campos, Monsalvo-Reyes &amp; Quintanar-Zuniga
-Selon ITIS      (15 août 2017)[8] :
+Selon ITIS      (15 août 2017) :
 Vaucheria acranda
 Vaucheria adela
 Vaucheria arcassonensis
@@ -825,7 +847,7 @@
 Vaucheria terrestris (Vaucher) De Candolle
 Vaucheria thuretii
 Vaucheria uncinata Kuetzing
-Selon World Register of Marine Species                               (15 août 2017)[2] :
+Selon World Register of Marine Species                               (15 août 2017) :
 Vaucheria acrandra Ott &amp; Hommersand, 1974
 Vaucheria adela Ott &amp; Hommersand, 1974
 Vaucheria adunca C.-C.Jao, 1939
